--- a/testFiles/数据上传模板.xlsx
+++ b/testFiles/数据上传模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programme\project\company\word\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programme\project\company\WordFormation\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="864" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15369,6 +15369,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TechWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -15442,7 +15446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15478,6 +15482,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16686,667 +16708,670 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="6">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="16">
         <v>44092</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="6">
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="16">
         <v>44092</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="16">
         <v>44094</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="6">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="16">
         <v>44092</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
-      <c r="A6" s="6">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="16">
         <v>44095</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
-      <c r="A7" s="6">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="16">
         <v>44094</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="16">
         <v>44092</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8">
-      <c r="A9" s="6">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="16">
         <v>44095</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="44.4">
-      <c r="A10" s="6">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="16">
         <v>44092</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="44.4">
-      <c r="A11" s="6">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="16">
         <v>44092</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="44.4">
-      <c r="A12" s="6">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="16">
         <v>44092</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="44.4">
-      <c r="A13" s="6">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="16">
         <v>44092</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="44.4">
-      <c r="A14" s="6">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="16">
         <v>44092</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="44.4">
-      <c r="A15" s="6">
+    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="16">
         <v>44093</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="44.4">
-      <c r="A16" s="6">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="16">
         <v>44092</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="44.4">
-      <c r="A17" s="6">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="16">
         <v>44092</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8">
-      <c r="A18" s="6">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="16">
         <v>44093</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8">
-      <c r="A19" s="6">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="16">
         <v>44093</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
-      <c r="A20" s="6">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="16">
         <v>44092</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="6">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="16">
         <v>44092</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.8">
-      <c r="A22" s="6">
+    <row r="22" spans="1:10" ht="15" customHeight="1">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="16">
         <v>44092</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="11" t="s">
